--- a/apps/features/backlog/desktop/windows/settings/kill_switch.xlsx
+++ b/apps/features/backlog/desktop/windows/settings/kill_switch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EA388-8D6A-4EC9-9B7F-116C85F903FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D54BC-727E-41DB-B272-E015BD40995B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="335">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -165,9 +165,6 @@
 2. tap on the menu list
 3. tap on the settings screen link
 4. tap on kill switch</t>
-  </si>
-  <si>
-    <t>should go to the system kill switch option</t>
   </si>
   <si>
     <t>Evaluate the user interface for enabling/disabling the kill switch.</t>
@@ -601,9 +598,6 @@
 5. connect server
 6. enable the kill switch
 </t>
-  </si>
-  <si>
-    <t>should work function properly as like stanndar kill switch</t>
   </si>
   <si>
     <t>verify that the kill switch works</t>
@@ -1228,6 +1222,130 @@
   </si>
   <si>
     <t>should operate effectively on devices</t>
+  </si>
+  <si>
+    <t>should work in both online and offline scenarios</t>
+  </si>
+  <si>
+    <t>should work regardless of the type of network the app is connected to</t>
+  </si>
+  <si>
+    <t>should work even when the app is in airplane mode</t>
+  </si>
+  <si>
+    <t>should function properly despite intermittent network connectivity</t>
+  </si>
+  <si>
+    <t>should handle a high number of concurrent users without issues</t>
+  </si>
+  <si>
+    <t>should perform reliably even when the app is under heavy load</t>
+  </si>
+  <si>
+    <t>should function properly even with limited device resources</t>
+  </si>
+  <si>
+    <t>should maintain reliable performance</t>
+  </si>
+  <si>
+    <t>should work seamlessly with other security features of the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> should not conflict with third-party security apps</t>
+  </si>
+  <si>
+    <t>should work effectively with other apps running in the background</t>
+  </si>
+  <si>
+    <t>should not interfere with the overall performance</t>
+  </si>
+  <si>
+    <t>should not be triggered with incorrect or expired credentials</t>
+  </si>
+  <si>
+    <t>should respond appropriately when the app is already in the process of being terminated</t>
+  </si>
+  <si>
+    <t>should handle invalid or malformed commands gracefully</t>
+  </si>
+  <si>
+    <t>should not be affected by incorrect configurations or settings</t>
+  </si>
+  <si>
+    <t>should not be triggered by unauthorized api calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> should be re-run successfully</t>
+  </si>
+  <si>
+    <t>should maintain backward compatibility with previous app versions</t>
+  </si>
+  <si>
+    <t>should be tested after any significant code changes or updates</t>
+  </si>
+  <si>
+    <t>should work properly</t>
+  </si>
+  <si>
+    <t>should function correctly with different language settings</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the app in non-English characters and special symbols</t>
+  </si>
+  <si>
+    <t>should handle non-english characters and special symbols properly</t>
+  </si>
+  <si>
+    <t>user interface for the kill switch should be properly translated</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the app in another language.</t>
+  </si>
+  <si>
+    <t>should behave differently based on user roles and permissions</t>
+  </si>
+  <si>
+    <t>behavior should align with user expectations</t>
+  </si>
+  <si>
+    <t>should work properly on devices with various screen sizes and resolutions</t>
+  </si>
+  <si>
+    <t>should be easily accessible to users</t>
+  </si>
+  <si>
+    <t>should not be triggered by unauthorized users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should prevent any malicious intent </t>
+  </si>
+  <si>
+    <t>sensitive information should not be exposed</t>
+  </si>
+  <si>
+    <t>time should be less</t>
+  </si>
+  <si>
+    <t>should perform well even with a large amount of app data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> should not disrupt critical app processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> should not interfere with ongoing user interactions</t>
+  </si>
+  <si>
+    <t>should function properly even when the app is in a unique state</t>
   </si>
 </sst>
 </file>
@@ -2392,8 +2510,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G2"/>
+      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2411,7 +2529,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2520,10 +2638,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>7</v>
@@ -2562,10 +2680,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -2600,10 +2718,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2641,7 +2759,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2676,10 +2794,10 @@
         <v>14</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -2714,10 +2832,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -2752,10 +2870,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -2793,7 +2911,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2831,7 +2949,7 @@
         <v>46</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -2869,7 +2987,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -2907,7 +3025,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
@@ -2945,7 +3063,7 @@
         <v>46</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="13"/>
@@ -2983,7 +3101,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="13"/>
@@ -3021,7 +3139,7 @@
         <v>46</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13"/>
@@ -3045,7 +3163,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
@@ -3059,7 +3177,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="13"/>
@@ -3097,7 +3215,7 @@
         <v>46</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="13"/>
@@ -3135,7 +3253,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
@@ -3173,7 +3291,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
@@ -3199,19 +3317,19 @@
     </row>
     <row r="22" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
@@ -3237,19 +3355,19 @@
     </row>
     <row r="23" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
@@ -3275,19 +3393,19 @@
     </row>
     <row r="24" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
@@ -3313,19 +3431,19 @@
     </row>
     <row r="25" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
@@ -3351,19 +3469,19 @@
     </row>
     <row r="26" spans="1:26" ht="103.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
@@ -3389,19 +3507,19 @@
     </row>
     <row r="27" spans="1:26" ht="107.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
@@ -3427,19 +3545,19 @@
     </row>
     <row r="28" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
@@ -3465,19 +3583,19 @@
     </row>
     <row r="29" spans="1:26" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
@@ -3503,19 +3621,19 @@
     </row>
     <row r="30" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
@@ -3541,19 +3659,19 @@
     </row>
     <row r="31" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
@@ -3579,19 +3697,19 @@
     </row>
     <row r="32" spans="1:26" ht="122.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
@@ -3617,19 +3735,19 @@
     </row>
     <row r="33" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="16"/>
@@ -3655,19 +3773,19 @@
     </row>
     <row r="34" spans="1:26" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
@@ -3693,19 +3811,19 @@
     </row>
     <row r="35" spans="1:26" ht="97.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
@@ -3731,19 +3849,19 @@
     </row>
     <row r="36" spans="1:26" ht="95.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
@@ -3769,19 +3887,19 @@
     </row>
     <row r="37" spans="1:26" ht="83.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
@@ -3807,19 +3925,19 @@
     </row>
     <row r="38" spans="1:26" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
@@ -3845,19 +3963,19 @@
     </row>
     <row r="39" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="16"/>
@@ -3883,19 +4001,19 @@
     </row>
     <row r="40" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
@@ -3921,19 +4039,19 @@
     </row>
     <row r="41" spans="1:26" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
@@ -3959,19 +4077,19 @@
     </row>
     <row r="42" spans="1:26" ht="94.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="13"/>
@@ -3997,19 +4115,19 @@
     </row>
     <row r="43" spans="1:26" ht="112.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="16"/>
@@ -4035,19 +4153,19 @@
     </row>
     <row r="44" spans="1:26" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
@@ -4073,19 +4191,19 @@
     </row>
     <row r="45" spans="1:26" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
@@ -4111,19 +4229,19 @@
     </row>
     <row r="46" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
@@ -4149,19 +4267,19 @@
     </row>
     <row r="47" spans="1:26" ht="94.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
@@ -4187,19 +4305,19 @@
     </row>
     <row r="48" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="16"/>
@@ -4225,19 +4343,19 @@
     </row>
     <row r="49" spans="1:26" ht="84.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
@@ -4263,19 +4381,19 @@
     </row>
     <row r="50" spans="1:26" ht="84.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="13"/>
@@ -4301,19 +4419,19 @@
     </row>
     <row r="51" spans="1:26" ht="77.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
@@ -4339,19 +4457,19 @@
     </row>
     <row r="52" spans="1:26" ht="83.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F52" s="12"/>
       <c r="G52" s="13"/>
@@ -4377,19 +4495,19 @@
     </row>
     <row r="53" spans="1:26" ht="88.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="16"/>
@@ -4415,19 +4533,19 @@
     </row>
     <row r="54" spans="1:26" ht="100.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>47</v>
+        <v>297</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="13"/>
@@ -4453,19 +4571,19 @@
     </row>
     <row r="55" spans="1:26" ht="82.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>47</v>
+        <v>298</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="13"/>
@@ -4491,19 +4609,19 @@
     </row>
     <row r="56" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="F56" s="12"/>
       <c r="G56" s="13"/>
@@ -4527,21 +4645,21 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="88.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="F57" s="15"/>
       <c r="G57" s="16"/>
@@ -4567,19 +4685,19 @@
     </row>
     <row r="58" spans="1:26" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>47</v>
+        <v>301</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="13"/>
@@ -4605,19 +4723,19 @@
     </row>
     <row r="59" spans="1:26" ht="97.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>47</v>
+        <v>302</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="13"/>
@@ -4643,19 +4761,19 @@
     </row>
     <row r="60" spans="1:26" ht="92.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>47</v>
+        <v>303</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="13"/>
@@ -4681,19 +4799,19 @@
     </row>
     <row r="61" spans="1:26" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
       <c r="F61" s="15"/>
       <c r="G61" s="16"/>
@@ -4719,19 +4837,19 @@
     </row>
     <row r="62" spans="1:26" ht="100.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>47</v>
+        <v>305</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="13"/>
@@ -4757,19 +4875,19 @@
     </row>
     <row r="63" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>47</v>
+        <v>306</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="13"/>
@@ -4795,19 +4913,19 @@
     </row>
     <row r="64" spans="1:26" ht="91.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="13"/>
@@ -4833,19 +4951,19 @@
     </row>
     <row r="65" spans="1:26" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>47</v>
+        <v>308</v>
       </c>
       <c r="F65" s="15"/>
       <c r="G65" s="16"/>
@@ -4871,19 +4989,19 @@
     </row>
     <row r="66" spans="1:26" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>47</v>
+        <v>309</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="13"/>
@@ -4907,21 +5025,21 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="13"/>
@@ -4947,19 +5065,19 @@
     </row>
     <row r="68" spans="1:26" ht="109.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>47</v>
+        <v>311</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="13"/>
@@ -4983,21 +5101,21 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="114.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="13"/>
@@ -5023,19 +5141,19 @@
     </row>
     <row r="70" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="16"/>
@@ -5061,19 +5179,19 @@
     </row>
     <row r="71" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>47</v>
+        <v>314</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="13"/>
@@ -5099,19 +5217,19 @@
     </row>
     <row r="72" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="13"/>
@@ -5137,19 +5255,19 @@
     </row>
     <row r="73" spans="1:26" ht="113.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="13"/>
@@ -5173,21 +5291,21 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="90.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B74" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>47</v>
+        <v>317</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="19"/>
@@ -5213,19 +5331,19 @@
     </row>
     <row r="75" spans="1:26" ht="94.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>47</v>
+        <v>318</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="13"/>
@@ -5249,21 +5367,21 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="89.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="13"/>
@@ -5289,19 +5407,19 @@
     </row>
     <row r="77" spans="1:26" ht="94.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>47</v>
+        <v>321</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="13"/>
@@ -5327,19 +5445,19 @@
     </row>
     <row r="78" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>47</v>
+        <v>323</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="13"/>
@@ -5365,19 +5483,19 @@
     </row>
     <row r="79" spans="1:26" ht="104.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="13"/>
@@ -5401,21 +5519,21 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>47</v>
+        <v>325</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="13"/>
@@ -5439,21 +5557,21 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="118.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="13"/>
@@ -5479,19 +5597,19 @@
     </row>
     <row r="82" spans="1:26" ht="88.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>47</v>
+        <v>327</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="13"/>
@@ -5517,19 +5635,19 @@
     </row>
     <row r="83" spans="1:26" ht="95.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="13"/>
@@ -5555,19 +5673,19 @@
     </row>
     <row r="84" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="13"/>
@@ -5593,19 +5711,19 @@
     </row>
     <row r="85" spans="1:26" ht="109.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>47</v>
+        <v>330</v>
       </c>
       <c r="F85" s="12"/>
       <c r="G85" s="13"/>
@@ -5631,19 +5749,19 @@
     </row>
     <row r="86" spans="1:26" ht="113.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>47</v>
+        <v>331</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="13"/>
@@ -5669,19 +5787,19 @@
     </row>
     <row r="87" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C87" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="13"/>
@@ -5707,19 +5825,19 @@
     </row>
     <row r="88" spans="1:26" ht="107.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="13"/>
@@ -5743,21 +5861,21 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="103.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>185</v>
+        <v>333</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="13"/>
@@ -5783,19 +5901,19 @@
     </row>
     <row r="90" spans="1:26" ht="91.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>185</v>
+        <v>334</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="13"/>
@@ -5819,21 +5937,21 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>185</v>
+        <v>276</v>
       </c>
       <c r="F91" s="15"/>
       <c r="G91" s="16"/>
